--- a/src/main/resources/xlsx/cr/applicants.xlsx
+++ b/src/main/resources/xlsx/cr/applicants.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B1384-EED5-4F81-8ED7-7E2A501CE464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFEDA2B-205F-4161-9F79-75AD7A5385D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2370" windowWidth="27870" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>现任岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,7 +264,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,39 +640,40 @@
     <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="24" max="25" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="42.75" customHeight="1">
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="42.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,8 +746,11 @@
       <c r="X2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Y2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" s="7" customFormat="1" ht="35.25" customHeight="1">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -761,32 +775,34 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+    <row r="4" spans="1:25" s="7" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/xlsx/cr/applicants.xlsx
+++ b/src/main/resources/xlsx/cr/applicants.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFEDA2B-205F-4161-9F79-75AD7A5385D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F6398-3B35-4993-9682-CF7BAE17B83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2370" windowWidth="27870" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,14 +261,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +614,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,7 +671,7 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="9"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="42.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -722,7 +722,7 @@
       <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -750,13 +750,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="35.25" customHeight="1">
+    <row r="3" spans="1:25" s="12" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -767,9 +767,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -777,7 +777,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" s="7" customFormat="1" ht="32.25" customHeight="1">
+    <row r="4" spans="1:25" s="6" customFormat="1" ht="32.25" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -802,7 +802,7 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
